--- a/Project plan.xlsx
+++ b/Project plan.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18067"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sara\Desktop\PP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PP\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455"/>
   </bookViews>
   <sheets>
     <sheet name="Plan" sheetId="2" r:id="rId1"/>
     <sheet name="Dijagram - aktivnosti" sheetId="3" r:id="rId2"/>
     <sheet name="Dijagram - osobe" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Task</t>
   </si>
@@ -120,63 +120,12 @@
   </si>
   <si>
     <t>Kreiranje različitih tipova odgovora.</t>
-  </si>
-  <si>
-    <t>Responzivnost.</t>
-  </si>
-  <si>
-    <t>Provjera ispravnosti podataka.</t>
-  </si>
-  <si>
-    <t>Ograničenje ispunjavanja anketa</t>
-  </si>
-  <si>
-    <t>Implementiranje mogućnosti reseta lozinke.</t>
-  </si>
-  <si>
-    <t>Provjera student/profesor.</t>
-  </si>
-  <si>
-    <t>Upisivanje bodova u bazu podataka.</t>
-  </si>
-  <si>
-    <t>Mogućnost poziva bodova iz baze na sučelje.</t>
-  </si>
-  <si>
-    <t>T10</t>
-  </si>
-  <si>
-    <t>T11</t>
-  </si>
-  <si>
-    <t>T12</t>
-  </si>
-  <si>
-    <t>T13</t>
-  </si>
-  <si>
-    <t>Luka</t>
-  </si>
-  <si>
-    <t>Davor</t>
-  </si>
-  <si>
-    <t>Sara</t>
-  </si>
-  <si>
-    <t>Zvonimir</t>
-  </si>
-  <si>
-    <t>01.04.2017.</t>
-  </si>
-  <si>
-    <t>In Progress</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -209,7 +158,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -234,8 +183,44 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -247,12 +232,117 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -262,42 +352,86 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normalno" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -313,7 +447,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema sustava Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -388,23 +522,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -440,23 +557,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -633,17 +733,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" customWidth="1"/>
     <col min="2" max="2" width="8" customWidth="1"/>
-    <col min="3" max="3" width="41.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.42578125" customWidth="1"/>
     <col min="4" max="5" width="18.28515625" customWidth="1"/>
     <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.5703125" customWidth="1"/>
@@ -652,435 +752,417 @@
     <col min="14" max="14" width="45.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-    </row>
-    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="5"/>
+    </row>
+    <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="2">
-        <v>2</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I3" s="2">
-        <v>2</v>
-      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="14"/>
       <c r="B4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="2">
-        <v>3</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I4" s="2">
-        <v>3</v>
-      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="14"/>
       <c r="B5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="2">
-        <v>2</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I5" s="2">
-        <v>2</v>
-      </c>
+      <c r="C5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
-        <v>25</v>
-      </c>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="14"/>
       <c r="B6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="2">
-        <v>2</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I6" s="2">
-        <v>2</v>
-      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>25</v>
+      </c>
       <c r="B7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="2">
-        <v>2</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I7" s="2">
-        <v>2</v>
-      </c>
+      <c r="C7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
+    <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="17"/>
       <c r="B8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="2">
-        <v>3</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I8" s="2">
-        <v>3</v>
-      </c>
+      <c r="C8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="17"/>
       <c r="B9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="2">
-        <v>3</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I9" s="2">
-        <v>3</v>
-      </c>
+      <c r="C9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
-        <v>26</v>
-      </c>
+    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="17"/>
       <c r="B10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="2">
-        <v>4</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I10" s="2">
-        <v>4</v>
-      </c>
+      <c r="C10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="18"/>
       <c r="B11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="2">
-        <v>3</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I11" s="2">
-        <v>3</v>
-      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="15"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="15"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="15"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="15"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="15"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="24"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="24"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="24"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="25"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1">
-        <v>3</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I12" s="1">
-        <v>3</v>
-      </c>
-      <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1">
-        <v>2</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I13" s="1">
-        <v>2</v>
-      </c>
-      <c r="J13" s="1"/>
-      <c r="L13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
+      <c r="B22" s="7"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="20"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="20"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="20"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="21"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1">
-        <v>3</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I14" s="1">
-        <v>3</v>
-      </c>
-      <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="B15" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1">
-        <v>3</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I15" s="1">
-        <v>3</v>
-      </c>
-      <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="B27" s="26"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8">
-        <f>SUM(F3:F15)</f>
-        <v>35</v>
-      </c>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8">
-        <f>SUM(I3:I15)</f>
-        <v>35</v>
-      </c>
-      <c r="J16" s="8"/>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+      <c r="F29" s="1">
+        <f>SUM(F3:F28)</f>
+        <v>0</v>
+      </c>
+      <c r="I29" s="1">
+        <f>SUM(I3:I28)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="A7:A11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1091,9 +1173,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
